--- a/questions3B.xlsx
+++ b/questions3B.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="535">
   <si>
     <t>QuestionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1613,6 +1613,146 @@
   </si>
   <si>
     <t>武力很高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷渡陰平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先入成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅蜀元勛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄧艾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐘會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夷陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東吳四傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火燒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸遜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯肅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西涼鐵騎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武力很高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涼州軍閥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張飛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲醇自醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江表之虎臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓當</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃蓋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操宿衞猛將</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹昂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典偉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許禇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹彰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1637,12 +1777,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1659,11 +1805,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2044,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4151,13 +4303,13 @@
       <c r="C71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="3" t="s">
         <v>141</v>
       </c>
       <c r="G71">
@@ -4166,7 +4318,7 @@
       <c r="H71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="3" t="s">
         <v>239</v>
       </c>
       <c r="J71" s="1" t="s">
@@ -4907,13 +5059,13 @@
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="3" t="s">
         <v>148</v>
       </c>
       <c r="G95">
@@ -4922,7 +5074,7 @@
       <c r="H95" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" s="3" t="s">
         <v>158</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -4977,13 +5129,13 @@
       <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G97">
@@ -4998,7 +5150,7 @@
       <c r="J97" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K97" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5022,7 +5174,7 @@
         <v>150</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>229</v>
@@ -5210,13 +5362,13 @@
       <c r="C104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="3" t="s">
         <v>154</v>
       </c>
       <c r="G104">
@@ -5231,7 +5383,7 @@
       <c r="J104" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="K104" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5245,19 +5397,19 @@
       <c r="C105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="3" t="s">
         <v>212</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -5548,13 +5700,13 @@
       <c r="C114" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
         <v>429</v>
       </c>
       <c r="G114">
@@ -5563,7 +5715,7 @@
       <c r="H114" t="s">
         <v>430</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="2" t="s">
         <v>431</v>
       </c>
       <c r="J114" t="s">
@@ -5583,13 +5735,13 @@
       <c r="C115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2" t="s">
         <v>436</v>
       </c>
       <c r="G115">
@@ -5604,7 +5756,7 @@
       <c r="J115" t="s">
         <v>439</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="2" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5723,13 +5875,13 @@
       <c r="C119" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
         <v>462</v>
       </c>
       <c r="G119">
@@ -5744,7 +5896,7 @@
       <c r="J119" t="s">
         <v>439</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6073,13 +6225,13 @@
       <c r="C129" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="2" t="s">
         <v>499</v>
       </c>
       <c r="G129">
@@ -6091,7 +6243,7 @@
       <c r="I129" t="s">
         <v>458</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="2" t="s">
         <v>459</v>
       </c>
       <c r="K129" t="s">
@@ -6101,6 +6253,176 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I130" t="s">
+        <v>504</v>
+      </c>
+      <c r="J130" t="s">
+        <v>505</v>
+      </c>
+      <c r="K130" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>510</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J131" t="s">
+        <v>512</v>
+      </c>
+      <c r="K131" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I132" t="s">
+        <v>518</v>
+      </c>
+      <c r="J132" t="s">
+        <v>519</v>
+      </c>
+      <c r="K132" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+      <c r="H133" t="s">
+        <v>524</v>
+      </c>
+      <c r="I133" t="s">
+        <v>525</v>
+      </c>
+      <c r="J133" t="s">
+        <v>526</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>531</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J134" t="s">
+        <v>533</v>
+      </c>
+      <c r="K134" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
